--- a/grupos/4ARHM - Estadisticos 20202.xlsx
+++ b/grupos/4ARHM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>Materia</t>
   </si>
@@ -158,19 +158,19 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Castro Vasquez Julieta</t>
+  </si>
+  <si>
+    <t>Mendoza Velazquez Laura Elena</t>
+  </si>
+  <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
-  </si>
-  <si>
-    <t>Castro Vasquez Julieta</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
     <t>NC</t>
@@ -2762,19 +2762,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -2794,19 +2794,19 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -2826,19 +2826,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
       <c r="G4">
-        <v>16.67</v>
+        <v>8.33</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2858,19 +2858,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>83.33</v>
+        <v>95.83</v>
       </c>
       <c r="G5">
-        <v>16.67</v>
+        <v>4.17</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -2890,19 +2890,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2922,19 +2922,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3429,7 +3429,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3459,50 +3459,50 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920125</v>
+        <v>19330051920424</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920125</v>
+        <v>19330051920424</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -3510,45 +3510,45 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920129</v>
+        <v>19330051920431</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920129</v>
+        <v>19330051920431</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3556,16 +3556,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920130</v>
+        <v>19330051920128</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920130</v>
+        <v>19330051920135</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3602,16 +3602,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920135</v>
+        <v>19330051920139</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3625,185 +3625,24 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920135</v>
+        <v>19330051920141</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16">
         <v>5</v>
       </c>
     </row>
